--- a/bonds_data.xlsx
+++ b/bonds_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Mathematics\Finance\apm466_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C0AC29-F52F-4C56-924D-5D9CE4DA07D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763DC41A-451A-428F-A5D8-F818AC01F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6990" windowWidth="29040" windowHeight="15840" xr2:uid="{FA59494D-4585-4C5B-B989-DBFD4B0C01B7}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +167,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,7 +508,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +801,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +926,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>

--- a/bonds_data.xlsx
+++ b/bonds_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Mathematics\Finance\apm466_assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763DC41A-451A-428F-A5D8-F818AC01F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C30CC7-1596-48B1-893A-B1B74B741718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6990" windowWidth="29040" windowHeight="15840" xr2:uid="{FA59494D-4585-4C5B-B989-DBFD4B0C01B7}"/>
+    <workbookView xWindow="-28800" yWindow="7275" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{FA59494D-4585-4C5B-B989-DBFD4B0C01B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada bond data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Issuer</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>TD5474260</t>
+  </si>
+  <si>
+    <t>US89114TZT2</t>
+  </si>
+  <si>
+    <t>TD5886298</t>
+  </si>
+  <si>
+    <t>TD5553093</t>
+  </si>
+  <si>
+    <t>TD5647748</t>
+  </si>
+  <si>
+    <t>TD5771255</t>
+  </si>
+  <si>
+    <t>TD5892238</t>
+  </si>
+  <si>
+    <t>TD6019456</t>
   </si>
 </sst>
 </file>
@@ -507,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A21530-986F-443A-AF30-6AC90624447A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3476EDA-3DA1-4809-A98E-FD744B37CDAB}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +897,7 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">ROUND(YEARFRAC("2025-03-21", E3), 4)</f>
+        <f t="shared" ref="G3:G11" si="0">ROUND(YEARFRAC("2025-03-21", E3), 4)</f>
         <v>0.98060000000000003</v>
       </c>
     </row>
@@ -905,60 +926,172 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>46456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>96.64</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.9694</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>46640</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.4693999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>46826</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.9805999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>47009</v>
+      </c>
+      <c r="F8" s="2">
+        <v>102.62</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.4777999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>47192</v>
+      </c>
+      <c r="F9" s="2">
+        <v>99.83</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3.9832999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4">
+        <v>47377</v>
+      </c>
+      <c r="F10" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>4.4861000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>47552</v>
+      </c>
+      <c r="F11" s="2">
+        <v>99.9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4.9694000000000003</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
